--- a/mfa/S_cerevisiae/run_files/Clim__D_0_08/scGEM_Clim__D_0_08_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Clim__D_0_08/scGEM_Clim__D_0_08_completeMFA.xlsx
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396941 ala__L_c + 0.156826 arg__L_c + 0.188516 asn__L_c + 0.188516 asp__L_c + 0.005688 cys__L_c + 0.314465 gln__L_c + 0.314465 glu__L_c + 0.361188 gly_c + 0.078413 his__L_c + 0.239302 ile__L_c + 0.325435 leu__L_c + 0.266930 lys__L_c + 0.046317 met__L_c + 0.152763 phe__L_c + 0.171452 pro__L_c + 0.216550 ser__L_c + 0.226301 thr__L_c + 0.026409 trp__L_c + 0.079632 tyr__L_c + 0.297807 val__L_c + 0.667970 mannan_c + 1.036545 13BDglucan_c + 0.272775 16BDglucan_c + 0.024506 chtn_c + 0.499733 glycogen_c + 0.025049 tre_c + 0.002152 ergstest_c + 0.008407 ergst_c + 0.002185 pail_c + 0.008154 pc_c + 0.002191 pe_c + 0.001882 ps_c + 0.002169 tag_c + 0.001216 ipcbiom_c + 0.000468 ffabiom_c + 0.042138 ctp_c + 0.043364 gtp_c + 0.056467 utp_c + 0.002373 datp_c + 0.001602 dctp_c + 0.001602 dgtp_c + 0.002373 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.282135 atp_c + 94.130937 h2o_c --&gt; 4.053917 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.247199 ppi_c</t>
+    <t xml:space="preserve">0.396941 ala__L_c + 0.156826 arg__L_c + 0.188516 asn__L_c + 0.188516 asp__L_c + 0.005688 cys__L_c + 0.314465 gln__L_c + 0.314465 glu__L_c + 0.361188 gly_c + 0.078413 his__L_c + 0.239302 ile__L_c + 0.325435 leu__L_c + 0.266930 lys__L_c + 0.046317 met__L_c + 0.152763 phe__L_c + 0.171452 pro__L_c + 0.216550 ser__L_c + 0.226301 thr__L_c + 0.026409 trp__L_c + 0.079632 tyr__L_c + 0.297807 val__L_c + 0.667970 mannan_c + 1.036545 13BDglucan_c + 0.272775 16BDglucan_c + 0.024506 chtn_c + 0.499733 glycogen_c + 0.025049 tre_c + 0.002152 ergstest_c + 0.008407 ergst_c + 0.002185 pail_c + 0.008154 pc_c + 0.002191 pe_c + 0.001882 ps_c + 0.002169 tag_c + 0.001216 ipcbiom_c + 0.000468 ffabiom_c + 0.042138 ctp_c + 0.043364 gtp_c + 0.056467 utp_c + 0.002373 datp_c + 0.001602 dctp_c + 0.001602 dgtp_c + 0.002373 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.560223 atp_c + 135.409025 h2o_c --&gt; 4.053917 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.247199 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14140,11 +14140,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -14391,9 +14390,9 @@
   <dimension ref="A1:N570"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A372" activeCellId="0" sqref="A372"/>
+      <selection pane="bottomLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16513,7 +16512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>338</v>
       </c>
